--- a/doc/永拓无线监控示范网采购目录.xlsx
+++ b/doc/永拓无线监控示范网采购目录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Gfapiao\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Gfapiao\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>子系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,9 +85,6 @@
   <si>
     <t>戴尔</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMB-S1224V2</t>
   </si>
   <si>
     <t>24口二层交换机</t>
@@ -262,77 +259,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>AL天线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL天线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永拓在天猫上下单收货，请嘉鸿提供型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永拓负责购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP-LINK TL-WDR5800 900M 11AC</t>
+  </si>
+  <si>
+    <t>普联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI网桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永拓在京东下单收货，请偕作确认型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永拓负责购买，请偕作确认型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL戴尔3020SFF 四核I5-4590 4G内存1TB硬盘 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康H264摄像头 - 消费级，带WIFI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TL天线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿视IP流媒体控制软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIS-IPC-V3.0-S32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州偕作信息科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频流服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>永拓在京东下单，偕作收货负责安装，请偕作确认型号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AL天线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TL天线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永拓在天猫上下单收货，请嘉鸿提供型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永拓负责购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TP-LINK TL-WDR5800 900M 11AC</t>
-  </si>
-  <si>
-    <t>普联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIFI网桥</t>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选型中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流到广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交运中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢云购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交运中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康H265摄像头 - 工业级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馈线等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>谢云负责选择，永拓负责购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永拓在京东下单收货，请偕作确认型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永拓在京东下单收货，普通PC机，负责运行客户端软件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apple</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="20"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pad Air 2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永拓负责购买，请偕作确认型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DELL戴尔3020SFF 四核I5-4590 4G内存1TB硬盘 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海康H264摄像头 - 消费级，带WIFI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -341,101 +411,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>IFI 路由器</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TL天线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睿视IP流媒体控制软件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIS-IPC-V3.0-S32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州偕作信息科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频流服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永拓在京东下单，偕作收货负责安装，请偕作确认型号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认报价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同撰写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同撰写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选型中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同撰写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选型中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同撰写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选型中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选型中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购中</t>
+    <t>SMB-S1224V2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +435,7 @@
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -476,25 +464,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -509,31 +478,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -543,11 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -560,73 +519,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -638,16 +576,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -659,16 +591,25 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -681,12 +622,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="3" builtinId="26"/>
-    <cellStyle name="适中" xfId="4" builtinId="28"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1041,22 +980,22 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="19" customWidth="1"/>
-    <col min="8" max="9" width="10.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="14" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,27 +1008,27 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>78</v>
+      <c r="I1" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1101,25 +1040,25 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>2560</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="14">
         <v>6</v>
       </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
         <f t="shared" ref="H2:H11" si="0">E2*F2</f>
         <v>15360</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="I2" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1129,25 +1068,25 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>2560</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <v>2</v>
       </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
         <f t="shared" si="0"/>
         <v>5120</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="I3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1157,227 +1096,227 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>6800</v>
       </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="I4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="19">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14">
         <v>4800</v>
       </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
-      <c r="B6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="I5" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="21">
         <v>4599</v>
       </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
         <f t="shared" si="0"/>
         <v>4599</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="8" t="s">
+      <c r="I6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="E7" s="15">
         <v>945</v>
       </c>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>945</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
+      <c r="I7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="14">
         <v>2400</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="22">
+      <c r="I8" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="21">
         <v>4000</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>0</v>
       </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="22">
+      <c r="I9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="21">
         <v>9000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>6</v>
       </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="22">
+      <c r="I10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="21">
         <v>5000</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33" t="s">
-        <v>40</v>
+      <c r="I11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>7020</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3">
         <f>33800+10000</f>
@@ -1389,22 +1328,22 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <f t="shared" ref="H12:H27" si="1">E12*F12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>7010</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <f>16800+10000</f>
@@ -1416,19 +1355,19 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>24000</v>
@@ -1439,160 +1378,160 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>37</v>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="19">
+        <v>22</v>
+      </c>
+      <c r="E15" s="14">
         <v>3680</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="14">
         <v>3</v>
       </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>11040</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="23">
+      <c r="I15" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="16">
         <v>1000</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="16">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
+      <c r="I16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="19">
+        <v>22</v>
+      </c>
+      <c r="E17" s="14">
         <v>4820</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
         <v>9640</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>85</v>
+      <c r="I17" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="20">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="15">
         <v>500</v>
       </c>
-      <c r="F18" s="20">
-        <v>2</v>
-      </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="20">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="20">
-        <v>2</v>
-      </c>
-      <c r="G19" s="20">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15">
+      <c r="F18" s="15">
+        <v>4</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
+      <c r="I18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
       <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>4820</v>
@@ -1603,44 +1542,44 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="9">
         <f t="shared" si="1"/>
         <v>14460</v>
       </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="19">
+        <v>22</v>
+      </c>
+      <c r="E21" s="14">
         <v>8750</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12">
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
         <f t="shared" si="1"/>
         <v>8750</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="I21" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1653,19 +1592,19 @@
       <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="11">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>30</v>
+    <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1678,206 +1617,213 @@
       <c r="G23" s="4">
         <v>2</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="21">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="15">
         <v>2000</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="15">
         <v>4</v>
       </c>
-      <c r="G24" s="21">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="I24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="15">
         <v>400</v>
       </c>
-      <c r="F25" s="19">
-        <v>6</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="12">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="21">
-        <v>400</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="F25" s="15">
         <v>2</v>
       </c>
-      <c r="G26" s="21">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="21">
+      <c r="I25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="15">
         <v>400</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F26" s="15">
         <v>2</v>
       </c>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="15">
+        <v>400</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="15">
+        <v>200</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>189</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="21">
+        <v>3279</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" ref="H29:H35" si="2">E29*F29</f>
+        <v>3279</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="19">
-        <v>200</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12">
-        <v>189</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="20">
-        <v>3588</v>
-      </c>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" ref="H29:H35" si="2">E29*F29</f>
-        <v>3588</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="19">
+      <c r="D30" s="6"/>
+      <c r="E30" s="15">
         <v>3000</v>
       </c>
-      <c r="F30" s="19">
-        <v>1</v>
-      </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12">
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>600</v>
@@ -1888,16 +1834,16 @@
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="9">
         <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>3000</v>
@@ -1908,52 +1854,47 @@
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="14">
         <v>4399</v>
       </c>
-      <c r="F33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12">
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
         <f t="shared" si="2"/>
-        <v>4399</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="28" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
       </c>
       <c r="E34">
         <v>1000</v>
@@ -1964,19 +1905,19 @@
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="9">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>1000</v>
@@ -1987,25 +1928,25 @@
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="9">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36"/>
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="17">
+      <c r="H36" s="12">
         <f>SUM(H2:H35)</f>
-        <v>215690</v>
-      </c>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>210382</v>
+      </c>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
     </row>
@@ -2041,7 +1982,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2056,7 +1997,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
